--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H2">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I2">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J2">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>36.8780198810074</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N2">
-        <v>36.8780198810074</v>
+        <v>0.467012</v>
       </c>
       <c r="O2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q2">
-        <v>1200.884101512867</v>
+        <v>6.079153788060889</v>
       </c>
       <c r="R2">
-        <v>1200.884101512867</v>
+        <v>54.71238409254801</v>
       </c>
       <c r="S2">
-        <v>0.05102327434724959</v>
+        <v>0.0002273542261366168</v>
       </c>
       <c r="T2">
-        <v>0.05102327434724959</v>
+        <v>0.0002273542261366168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H3">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I3">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J3">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.8618500951123</v>
+        <v>37.12743</v>
       </c>
       <c r="N3">
-        <v>16.8618500951123</v>
+        <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q3">
-        <v>549.0839195447722</v>
+        <v>1449.87724121949</v>
       </c>
       <c r="R3">
-        <v>549.0839195447722</v>
+        <v>13048.89517097541</v>
       </c>
       <c r="S3">
-        <v>0.02332952816287731</v>
+        <v>0.05422394788201208</v>
       </c>
       <c r="T3">
-        <v>0.02332952816287731</v>
+        <v>0.05422394788201208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H4">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I4">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J4">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.149612862403</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N4">
-        <v>17.149612862403</v>
+        <v>53.227738</v>
       </c>
       <c r="O4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q4">
-        <v>558.4545347069145</v>
+        <v>692.8721426700224</v>
       </c>
       <c r="R4">
-        <v>558.4545347069145</v>
+        <v>6235.849284030202</v>
       </c>
       <c r="S4">
-        <v>0.02372766772323801</v>
+        <v>0.02591271997720099</v>
       </c>
       <c r="T4">
-        <v>0.02372766772323801</v>
+        <v>0.02591271997720099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H5">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I5">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J5">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82967471352271</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N5">
-        <v>4.82967471352271</v>
+        <v>56.631023</v>
       </c>
       <c r="O5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q5">
-        <v>157.2719901356508</v>
+        <v>737.1731304382185</v>
       </c>
       <c r="R5">
-        <v>157.2719901356508</v>
+        <v>6634.558173943967</v>
       </c>
       <c r="S5">
-        <v>0.006682186806969955</v>
+        <v>0.02756953228073357</v>
       </c>
       <c r="T5">
-        <v>0.006682186806969955</v>
+        <v>0.02756953228073357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.5636817103441</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H6">
-        <v>32.5636817103441</v>
+        <v>117.154129</v>
       </c>
       <c r="I6">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J6">
-        <v>0.137518696487288</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.6750363319816</v>
+        <v>4.878365</v>
       </c>
       <c r="N6">
-        <v>23.6750363319816</v>
+        <v>14.635095</v>
       </c>
       <c r="O6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q6">
-        <v>770.9463475954814</v>
+        <v>190.5068675063616</v>
       </c>
       <c r="R6">
-        <v>770.9463475954814</v>
+        <v>1714.561807557255</v>
       </c>
       <c r="S6">
-        <v>0.0327560394469531</v>
+        <v>0.007124764884330314</v>
       </c>
       <c r="T6">
-        <v>0.0327560394469531</v>
+        <v>0.007124764884330316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.54733380609143</v>
+        <v>39.05137633333333</v>
       </c>
       <c r="H7">
-        <v>3.54733380609143</v>
+        <v>117.154129</v>
       </c>
       <c r="I7">
-        <v>0.01498063779637123</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="J7">
-        <v>0.01498063779637123</v>
+        <v>0.1500316376309417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8780198810074</v>
+        <v>23.94642</v>
       </c>
       <c r="N7">
-        <v>36.8780198810074</v>
+        <v>71.83926</v>
       </c>
       <c r="O7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q7">
-        <v>130.8186466256094</v>
+        <v>935.14065925606</v>
       </c>
       <c r="R7">
-        <v>130.8186466256094</v>
+        <v>8416.265933304539</v>
       </c>
       <c r="S7">
-        <v>0.005558234710664833</v>
+        <v>0.03497331838052813</v>
       </c>
       <c r="T7">
-        <v>0.005558234710664833</v>
+        <v>0.03497331838052813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H8">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I8">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J8">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.8618500951123</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N8">
-        <v>16.8618500951123</v>
+        <v>0.467012</v>
       </c>
       <c r="O8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q8">
-        <v>59.81461087563785</v>
+        <v>0.5527043951115557</v>
       </c>
       <c r="R8">
-        <v>59.81461087563785</v>
+        <v>4.974339556004001</v>
       </c>
       <c r="S8">
-        <v>0.002541408697839231</v>
+        <v>2.067058745572172E-05</v>
       </c>
       <c r="T8">
-        <v>0.002541408697839231</v>
+        <v>2.067058745572172E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H9">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I9">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J9">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.149612862403</v>
+        <v>37.12743</v>
       </c>
       <c r="N9">
-        <v>17.149612862403</v>
+        <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q9">
-        <v>60.83540146818258</v>
+        <v>131.81991302277</v>
       </c>
       <c r="R9">
-        <v>60.83540146818258</v>
+        <v>1186.37921720493</v>
       </c>
       <c r="S9">
-        <v>0.00258478014258472</v>
+        <v>0.004929931921371525</v>
       </c>
       <c r="T9">
-        <v>0.00258478014258472</v>
+        <v>0.004929931921371524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H10">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I10">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J10">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.82967471352271</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N10">
-        <v>4.82967471352271</v>
+        <v>53.227738</v>
       </c>
       <c r="O10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q10">
-        <v>17.13246838370405</v>
+        <v>62.99453704497179</v>
       </c>
       <c r="R10">
-        <v>17.13246838370405</v>
+        <v>566.950833404746</v>
       </c>
       <c r="S10">
-        <v>0.0007279258951684487</v>
+        <v>0.002355932210305608</v>
       </c>
       <c r="T10">
-        <v>0.0007279258951684487</v>
+        <v>0.002355932210305607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.54733380609143</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H11">
-        <v>3.54733380609143</v>
+        <v>10.651417</v>
       </c>
       <c r="I11">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J11">
-        <v>0.01498063779637123</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.6750363319816</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N11">
-        <v>23.6750363319816</v>
+        <v>56.631023</v>
       </c>
       <c r="O11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q11">
-        <v>83.98325674088119</v>
+        <v>67.02229345662123</v>
       </c>
       <c r="R11">
-        <v>83.98325674088119</v>
+        <v>603.2006411095911</v>
       </c>
       <c r="S11">
-        <v>0.003568288350114</v>
+        <v>0.002506566241613681</v>
       </c>
       <c r="T11">
-        <v>0.003568288350114</v>
+        <v>0.00250656624161368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.7024097725416</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H12">
-        <v>54.7024097725416</v>
+        <v>10.651417</v>
       </c>
       <c r="I12">
-        <v>0.2310120874398484</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J12">
-        <v>0.2310120874398484</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.8780198810074</v>
+        <v>4.878365</v>
       </c>
       <c r="N12">
-        <v>36.8780198810074</v>
+        <v>14.635095</v>
       </c>
       <c r="O12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q12">
-        <v>2017.316555130802</v>
+        <v>17.32049996440167</v>
       </c>
       <c r="R12">
-        <v>2017.316555130802</v>
+        <v>155.884499679615</v>
       </c>
       <c r="S12">
-        <v>0.08571193165769843</v>
+        <v>0.0006477692460157248</v>
       </c>
       <c r="T12">
-        <v>0.08571193165769843</v>
+        <v>0.0006477692460157247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.7024097725416</v>
+        <v>3.550472333333333</v>
       </c>
       <c r="H13">
-        <v>54.7024097725416</v>
+        <v>10.651417</v>
       </c>
       <c r="I13">
-        <v>0.2310120874398484</v>
+        <v>0.01364057374025676</v>
       </c>
       <c r="J13">
-        <v>0.2310120874398484</v>
+        <v>0.01364057374025675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8618500951123</v>
+        <v>23.94642</v>
       </c>
       <c r="N13">
-        <v>16.8618500951123</v>
+        <v>71.83926</v>
       </c>
       <c r="O13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q13">
-        <v>922.3838334260025</v>
+        <v>85.02110169238</v>
       </c>
       <c r="R13">
-        <v>922.3838334260025</v>
+        <v>765.1899152314199</v>
       </c>
       <c r="S13">
-        <v>0.0391903292974509</v>
+        <v>0.003179703533494495</v>
       </c>
       <c r="T13">
-        <v>0.0391903292974509</v>
+        <v>0.003179703533494495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H14">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I14">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J14">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>17.149612862403</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N14">
-        <v>17.149612862403</v>
+        <v>0.467012</v>
       </c>
       <c r="O14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q14">
-        <v>938.125150239619</v>
+        <v>9.977191076741779</v>
       </c>
       <c r="R14">
-        <v>938.125150239619</v>
+        <v>89.794719690676</v>
       </c>
       <c r="S14">
-        <v>0.03985914781653721</v>
+        <v>0.0003731368929545273</v>
       </c>
       <c r="T14">
-        <v>0.03985914781653721</v>
+        <v>0.0003731368929545274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H15">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I15">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J15">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.82967471352271</v>
+        <v>37.12743</v>
       </c>
       <c r="N15">
-        <v>4.82967471352271</v>
+        <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q15">
-        <v>264.1948452472017</v>
+        <v>2379.558533603129</v>
       </c>
       <c r="R15">
-        <v>264.1948452472017</v>
+        <v>21416.02680242817</v>
       </c>
       <c r="S15">
-        <v>0.0112251349261723</v>
+        <v>0.08899309144253277</v>
       </c>
       <c r="T15">
-        <v>0.0112251349261723</v>
+        <v>0.08899309144253277</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.7024097725416</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H16">
-        <v>54.7024097725416</v>
+        <v>192.274973</v>
       </c>
       <c r="I16">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J16">
-        <v>0.2310120874398484</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.6750363319816</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N16">
-        <v>23.6750363319816</v>
+        <v>53.227738</v>
       </c>
       <c r="O16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q16">
-        <v>1295.081538811868</v>
+        <v>1137.151320755675</v>
       </c>
       <c r="R16">
-        <v>1295.081538811868</v>
+        <v>10234.36188680107</v>
       </c>
       <c r="S16">
-        <v>0.05502554374198959</v>
+        <v>0.04252831356863983</v>
       </c>
       <c r="T16">
-        <v>0.05502554374198959</v>
+        <v>0.04252831356863983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.2800139645765</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H17">
-        <v>31.2800139645765</v>
+        <v>192.274973</v>
       </c>
       <c r="I17">
-        <v>0.132097678167217</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J17">
-        <v>0.132097678167217</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.8780198810074</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N17">
-        <v>36.8780198810074</v>
+        <v>56.631023</v>
       </c>
       <c r="O17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q17">
-        <v>1153.544976863841</v>
+        <v>1209.858713143042</v>
       </c>
       <c r="R17">
-        <v>1153.544976863841</v>
+        <v>10888.72841828738</v>
       </c>
       <c r="S17">
-        <v>0.04901192525762224</v>
+        <v>0.04524749678178799</v>
       </c>
       <c r="T17">
-        <v>0.04901192525762224</v>
+        <v>0.04524749678178799</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.2800139645765</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H18">
-        <v>31.2800139645765</v>
+        <v>192.274973</v>
       </c>
       <c r="I18">
-        <v>0.132097678167217</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J18">
-        <v>0.132097678167217</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.8618500951123</v>
+        <v>4.878365</v>
       </c>
       <c r="N18">
-        <v>16.8618500951123</v>
+        <v>14.635095</v>
       </c>
       <c r="O18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q18">
-        <v>527.4389064437083</v>
+        <v>312.6624995530483</v>
       </c>
       <c r="R18">
-        <v>527.4389064437083</v>
+        <v>2813.962495977435</v>
       </c>
       <c r="S18">
-        <v>0.0224098728519992</v>
+        <v>0.01169326243521438</v>
       </c>
       <c r="T18">
-        <v>0.0224098728519992</v>
+        <v>0.01169326243521438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.2800139645765</v>
+        <v>64.09165766666666</v>
       </c>
       <c r="H19">
-        <v>31.2800139645765</v>
+        <v>192.274973</v>
       </c>
       <c r="I19">
-        <v>0.132097678167217</v>
+        <v>0.2462339938068688</v>
       </c>
       <c r="J19">
-        <v>0.132097678167217</v>
+        <v>0.2462339938068687</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.149612862403</v>
+        <v>23.94642</v>
       </c>
       <c r="N19">
-        <v>17.149612862403</v>
+        <v>71.83926</v>
       </c>
       <c r="O19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q19">
-        <v>536.4401298230466</v>
+        <v>1534.76575298222</v>
       </c>
       <c r="R19">
-        <v>536.4401298230466</v>
+        <v>13812.89177683998</v>
       </c>
       <c r="S19">
-        <v>0.0227923176602586</v>
+        <v>0.05739869268573924</v>
       </c>
       <c r="T19">
-        <v>0.0227923176602586</v>
+        <v>0.05739869268573923</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H20">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I20">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J20">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.82967471352271</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N20">
-        <v>4.82967471352271</v>
+        <v>0.467012</v>
       </c>
       <c r="O20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q20">
-        <v>151.0722924833524</v>
+        <v>5.062586506755555</v>
       </c>
       <c r="R20">
-        <v>151.0722924833524</v>
+        <v>45.56327856080001</v>
       </c>
       <c r="S20">
-        <v>0.006418773481916593</v>
+        <v>0.0001893356341393413</v>
       </c>
       <c r="T20">
-        <v>0.006418773481916593</v>
+        <v>0.0001893356341393413</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.2800139645765</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H21">
-        <v>31.2800139645765</v>
+        <v>97.5634</v>
       </c>
       <c r="I21">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J21">
-        <v>0.132097678167217</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.6750363319816</v>
+        <v>37.12743</v>
       </c>
       <c r="N21">
-        <v>23.6750363319816</v>
+        <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.2381933532214729</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P21">
-        <v>0.2381933532214729</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q21">
-        <v>740.5554670762405</v>
+        <v>1207.426101354</v>
       </c>
       <c r="R21">
-        <v>740.5554670762405</v>
+        <v>10866.834912186</v>
       </c>
       <c r="S21">
-        <v>0.03146478891542036</v>
+        <v>0.04515651955205008</v>
       </c>
       <c r="T21">
-        <v>0.03146478891542036</v>
+        <v>0.04515651955205008</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.383544805788</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H22">
-        <v>111.383544805788</v>
+        <v>97.5634</v>
       </c>
       <c r="I22">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J22">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.8780198810074</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N22">
-        <v>36.8780198810074</v>
+        <v>53.227738</v>
       </c>
       <c r="O22">
-        <v>0.3710279085721709</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P22">
-        <v>0.3710279085721709</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q22">
-        <v>4107.604579764929</v>
+        <v>577.0087881765778</v>
       </c>
       <c r="R22">
-        <v>4107.604579764929</v>
+        <v>5193.0790935892</v>
       </c>
       <c r="S22">
-        <v>0.1745242818348023</v>
+        <v>0.02157954726652145</v>
       </c>
       <c r="T22">
-        <v>0.1745242818348023</v>
+        <v>0.02157954726652145</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.383544805788</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H23">
-        <v>111.383544805788</v>
+        <v>97.5634</v>
       </c>
       <c r="I23">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J23">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.8618500951123</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N23">
-        <v>16.8618500951123</v>
+        <v>56.631023</v>
       </c>
       <c r="O23">
-        <v>0.1696462281769364</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P23">
-        <v>0.1696462281769364</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q23">
-        <v>1878.132635577422</v>
+        <v>613.9016832620222</v>
       </c>
       <c r="R23">
-        <v>1878.132635577422</v>
+        <v>5525.1151493582</v>
       </c>
       <c r="S23">
-        <v>0.07979827246015296</v>
+        <v>0.02295930436833448</v>
       </c>
       <c r="T23">
-        <v>0.07979827246015296</v>
+        <v>0.02295930436833448</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.383544805788</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H24">
-        <v>111.383544805788</v>
+        <v>97.5634</v>
       </c>
       <c r="I24">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J24">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.149612862403</v>
+        <v>4.878365</v>
       </c>
       <c r="N24">
-        <v>17.149612862403</v>
+        <v>14.635095</v>
       </c>
       <c r="O24">
-        <v>0.1725413949472053</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P24">
-        <v>0.1725413949472053</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q24">
-        <v>1910.184672661383</v>
+        <v>158.6499586136667</v>
       </c>
       <c r="R24">
-        <v>1910.184672661383</v>
+        <v>1427.849627523</v>
       </c>
       <c r="S24">
-        <v>0.08116010236485643</v>
+        <v>0.005933348591716066</v>
       </c>
       <c r="T24">
-        <v>0.08116010236485643</v>
+        <v>0.005933348591716066</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.383544805788</v>
+        <v>32.52113333333333</v>
       </c>
       <c r="H25">
-        <v>111.383544805788</v>
+        <v>97.5634</v>
       </c>
       <c r="I25">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="J25">
-        <v>0.4703804695081434</v>
+        <v>0.1249430711472629</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.82967471352271</v>
+        <v>23.94642</v>
       </c>
       <c r="N25">
-        <v>4.82967471352271</v>
+        <v>71.83926</v>
       </c>
       <c r="O25">
-        <v>0.04859111508221464</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P25">
-        <v>0.04859111508221464</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q25">
-        <v>537.9462898510382</v>
+        <v>778.7647176759999</v>
       </c>
       <c r="R25">
-        <v>537.9462898510382</v>
+        <v>7008.882459083999</v>
       </c>
       <c r="S25">
-        <v>0.02285631152629635</v>
+        <v>0.0291250157345015</v>
       </c>
       <c r="T25">
-        <v>0.02285631152629635</v>
+        <v>0.0291250157345015</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.383544805788</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H26">
-        <v>111.383544805788</v>
+        <v>352.152809</v>
       </c>
       <c r="I26">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J26">
-        <v>0.4703804695081434</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>23.6750363319816</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N26">
-        <v>23.6750363319816</v>
+        <v>0.467012</v>
       </c>
       <c r="O26">
-        <v>0.2381933532214729</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P26">
-        <v>0.2381933532214729</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q26">
-        <v>2637.009470061932</v>
+        <v>18.27328751518978</v>
       </c>
       <c r="R26">
-        <v>2637.009470061932</v>
+        <v>164.459587636708</v>
       </c>
       <c r="S26">
-        <v>0.1120415013220355</v>
+        <v>0.000683402540358017</v>
       </c>
       <c r="T26">
-        <v>0.1120415013220355</v>
+        <v>0.000683402540358017</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.31759400266203</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H27">
-        <v>3.31759400266203</v>
+        <v>352.152809</v>
       </c>
       <c r="I27">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J27">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>36.8780198810074</v>
+        <v>37.12743</v>
       </c>
       <c r="N27">
-        <v>36.8780198810074</v>
+        <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3710279085721709</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P27">
-        <v>0.3710279085721709</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q27">
-        <v>122.3462975872812</v>
+        <v>4358.17625515029</v>
       </c>
       <c r="R27">
-        <v>122.3462975872812</v>
+        <v>39223.58629635262</v>
       </c>
       <c r="S27">
-        <v>0.005198260764133539</v>
+        <v>0.1629914005141053</v>
       </c>
       <c r="T27">
-        <v>0.005198260764133539</v>
+        <v>0.1629914005141053</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.31759400266203</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H28">
-        <v>3.31759400266203</v>
+        <v>352.152809</v>
       </c>
       <c r="I28">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J28">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.8618500951123</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N28">
-        <v>16.8618500951123</v>
+        <v>53.227738</v>
       </c>
       <c r="O28">
-        <v>0.1696462281769364</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P28">
-        <v>0.1696462281769364</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q28">
-        <v>55.94077274933074</v>
+        <v>2082.699717046227</v>
       </c>
       <c r="R28">
-        <v>55.94077274933074</v>
+        <v>18744.29745341605</v>
       </c>
       <c r="S28">
-        <v>0.002376816706616766</v>
+        <v>0.07789087082711142</v>
       </c>
       <c r="T28">
-        <v>0.002376816706616766</v>
+        <v>0.07789087082711141</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.31759400266203</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H29">
-        <v>3.31759400266203</v>
+        <v>352.152809</v>
       </c>
       <c r="I29">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J29">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.149612862403</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N29">
-        <v>17.149612862403</v>
+        <v>56.631023</v>
       </c>
       <c r="O29">
-        <v>0.1725413949472053</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P29">
-        <v>0.1725413949472053</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q29">
-        <v>56.8954527802838</v>
+        <v>2215.863758443735</v>
       </c>
       <c r="R29">
-        <v>56.8954527802838</v>
+        <v>19942.77382599361</v>
       </c>
       <c r="S29">
-        <v>0.002417379239730323</v>
+        <v>0.08287107179531422</v>
       </c>
       <c r="T29">
-        <v>0.002417379239730323</v>
+        <v>0.08287107179531421</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.31759400266203</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H30">
-        <v>3.31759400266203</v>
+        <v>352.152809</v>
       </c>
       <c r="I30">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J30">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.82967471352271</v>
+        <v>4.878365</v>
       </c>
       <c r="N30">
-        <v>4.82967471352271</v>
+        <v>14.635095</v>
       </c>
       <c r="O30">
-        <v>0.04859111508221464</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P30">
-        <v>0.04859111508221464</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q30">
-        <v>16.0228998643914</v>
+        <v>572.6433126924284</v>
       </c>
       <c r="R30">
-        <v>16.0228998643914</v>
+        <v>5153.789814231855</v>
       </c>
       <c r="S30">
-        <v>0.0006807824456909853</v>
+        <v>0.0214162828821977</v>
       </c>
       <c r="T30">
-        <v>0.0006807824456909853</v>
+        <v>0.0214162828821977</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.31759400266203</v>
+        <v>117.3842696666667</v>
       </c>
       <c r="H31">
-        <v>3.31759400266203</v>
+        <v>352.152809</v>
       </c>
       <c r="I31">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="J31">
-        <v>0.01401043060113197</v>
+        <v>0.4509790912329367</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.6750363319816</v>
+        <v>23.94642</v>
       </c>
       <c r="N31">
-        <v>23.6750363319816</v>
+        <v>71.83926</v>
       </c>
       <c r="O31">
-        <v>0.2381933532214729</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P31">
-        <v>0.2381933532214729</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q31">
-        <v>78.54415854778783</v>
+        <v>2810.93302283126</v>
       </c>
       <c r="R31">
-        <v>78.54415854778783</v>
+        <v>25298.39720548134</v>
       </c>
       <c r="S31">
-        <v>0.00333719144496036</v>
+        <v>0.1051260626738501</v>
       </c>
       <c r="T31">
-        <v>0.00333719144496036</v>
+        <v>0.1051260626738501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.688700333333333</v>
+      </c>
+      <c r="H32">
+        <v>11.066101</v>
+      </c>
+      <c r="I32">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="J32">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1556706666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.467012</v>
+      </c>
+      <c r="O32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="P32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="Q32">
+        <v>0.5742224400235556</v>
+      </c>
+      <c r="R32">
+        <v>5.168001960212</v>
+      </c>
+      <c r="S32">
+        <v>2.147534065320601E-05</v>
+      </c>
+      <c r="T32">
+        <v>2.147534065320601E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.688700333333333</v>
+      </c>
+      <c r="H33">
+        <v>11.066101</v>
+      </c>
+      <c r="I33">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="J33">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.12743</v>
+      </c>
+      <c r="N33">
+        <v>111.38229</v>
+      </c>
+      <c r="O33">
+        <v>0.3614167567469731</v>
+      </c>
+      <c r="P33">
+        <v>0.3614167567469732</v>
+      </c>
+      <c r="Q33">
+        <v>136.95196341681</v>
+      </c>
+      <c r="R33">
+        <v>1232.56767075129</v>
+      </c>
+      <c r="S33">
+        <v>0.005121865434901418</v>
+      </c>
+      <c r="T33">
+        <v>0.005121865434901418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.688700333333333</v>
+      </c>
+      <c r="H34">
+        <v>11.066101</v>
+      </c>
+      <c r="I34">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="J34">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.74257933333334</v>
+      </c>
+      <c r="N34">
+        <v>53.227738</v>
+      </c>
+      <c r="O34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="P34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="Q34">
+        <v>65.44705830105978</v>
+      </c>
+      <c r="R34">
+        <v>589.023524709538</v>
+      </c>
+      <c r="S34">
+        <v>0.002447654034049657</v>
+      </c>
+      <c r="T34">
+        <v>0.002447654034049657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.688700333333333</v>
+      </c>
+      <c r="H35">
+        <v>11.066101</v>
+      </c>
+      <c r="I35">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="J35">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>18.87700766666667</v>
+      </c>
+      <c r="N35">
+        <v>56.631023</v>
+      </c>
+      <c r="O35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="P35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="Q35">
+        <v>69.63162447236923</v>
+      </c>
+      <c r="R35">
+        <v>626.6846202513229</v>
+      </c>
+      <c r="S35">
+        <v>0.002604152592362818</v>
+      </c>
+      <c r="T35">
+        <v>0.002604152592362818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.688700333333333</v>
+      </c>
+      <c r="H36">
+        <v>11.066101</v>
+      </c>
+      <c r="I36">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="J36">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.878365</v>
+      </c>
+      <c r="N36">
+        <v>14.635095</v>
+      </c>
+      <c r="O36">
+        <v>0.04748841642225027</v>
+      </c>
+      <c r="P36">
+        <v>0.04748841642225028</v>
+      </c>
+      <c r="Q36">
+        <v>17.99482660162166</v>
+      </c>
+      <c r="R36">
+        <v>161.953439414595</v>
+      </c>
+      <c r="S36">
+        <v>0.0006729883827760999</v>
+      </c>
+      <c r="T36">
+        <v>0.0006729883827760999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.688700333333333</v>
+      </c>
+      <c r="H37">
+        <v>11.066101</v>
+      </c>
+      <c r="I37">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="J37">
+        <v>0.01417163244173325</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.94642</v>
+      </c>
+      <c r="N37">
+        <v>71.83926</v>
+      </c>
+      <c r="O37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q37">
+        <v>88.33116743613999</v>
+      </c>
+      <c r="R37">
+        <v>794.98050692526</v>
+      </c>
+      <c r="S37">
+        <v>0.003303496656990048</v>
+      </c>
+      <c r="T37">
+        <v>0.003303496656990047</v>
       </c>
     </row>
   </sheetData>
